--- a/Fase 2/Evidencias del proyecto/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/Fase 2/Evidencias del proyecto/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -10,19 +10,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="kUvA3xEhwjdaOYAjKrmZdKEG3DtQhVx6Udm73Yaoybw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="3ODjs6c51l+FIFRhU1XhYL77WGGdif1pGYwxE8Yxwj4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
   <si>
-    <t>Identificador de la Historia</t>
+    <t>Identificador (ID) de la Historia</t>
   </si>
   <si>
     <t>Enunciado de la Historia</t>
@@ -46,77 +46,7 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Como un </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, necesito </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>crear tareas con detalles como título, descripción, fecha de inicio, fecha límite y prioridad</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, con la finalidad de </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>organizar mejor mis actividades y tener un seguimiento claro</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Creación de Tareas.</t>
-  </si>
-  <si>
-    <t>Pendiente.</t>
-  </si>
-  <si>
-    <t>Alta.</t>
-  </si>
-  <si>
-    <t>La tarea debe incluir validaciones en el formulario de creación.</t>
+    <t>XX-XXXX-XXXX</t>
   </si>
   <si>
     <r>
@@ -134,7 +64,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -151,7 +81,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>modificar y actualizar los detalles de una tarea existente</t>
+      <t>que mi personaje pueda moverse en ocho direcciones</t>
     </r>
     <r>
       <rPr>
@@ -168,22 +98,26 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>mantener la información relevante y actualizada a medida que avanza el proyecto</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>explorar la mazmorra</t>
     </r>
   </si>
   <si>
-    <t>Edición de Tareas.</t>
+    <t>Movimiento básico del personaje</t>
   </si>
   <si>
-    <t>Validar la edición sin perder el historial de cambios.</t>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>5 puntos</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Fundamental para la jugabilidad inicial. Debe incluir animaciones de movimiento</t>
   </si>
   <si>
     <r>
@@ -201,7 +135,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -218,7 +152,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>adjuntar archivos relevantes a mis tareas</t>
+      <t>que mi personaje pueda realizar ataques cuerpo a cuerpo y a distancia</t>
     </r>
     <r>
       <rPr>
@@ -235,25 +169,20 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>tener todos los recursos necesarios en un solo lugar</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>derrotar enemigos</t>
     </r>
   </si>
   <si>
-    <t>Adjuntar Archivos.</t>
+    <t>Implementación de sistema de combate</t>
   </si>
   <si>
-    <t>Media.</t>
+    <t>8 puntos</t>
   </si>
   <si>
-    <t>El sistema debe permitir archivos de hasta 2MB.</t>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Considerar animaciones y sincronización con controles</t>
   </si>
   <si>
     <r>
@@ -271,7 +200,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Administrador</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +217,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>asignar diferentes roles y permisos a los usuarios</t>
+      <t>que existan enemigos que me persigan y ataquen cuerpo a cuerpo</t>
     </r>
     <r>
       <rPr>
@@ -305,22 +234,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>controlar el acceso y las funciones dentro de la plataforma</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>aumentar el desafío del juego</t>
     </r>
   </si>
   <si>
-    <t>Gestión de Roles.</t>
+    <t>Implementación de enemigos básicos</t>
   </si>
   <si>
-    <t>Crear roles predefinidos (Administrador, Usuario).</t>
+    <t>Incluir detección de rango y comportamiento de seguimiento</t>
   </si>
   <si>
     <r>
@@ -338,7 +259,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +276,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>crear subtareas dentro de una tarea</t>
+      <t>que las mazmorras se generen de manera aleatoria</t>
     </r>
     <r>
       <rPr>
@@ -372,22 +293,20 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>dividir mis actividades en pasos más pequeños y alcanzables</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>que cada partida sea única</t>
     </r>
   </si>
   <si>
-    <t>Subtareas.</t>
+    <t>Sistema de generación procedimental</t>
   </si>
   <si>
-    <t>Las subtareas deben heredar el estado de la tarea principal cuando sea completada.</t>
+    <t>13 puntos</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Evaluar algoritmos eficientes para garantizar conectividad de las salas</t>
   </si>
   <si>
     <r>
@@ -405,7 +324,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +341,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>eliminar tareas que ya no son necesarias</t>
+      <t>una barra que muestre la vida restante de mi personaje</t>
     </r>
     <r>
       <rPr>
@@ -439,22 +358,20 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>mantener mi espacio de trabajo organizado</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>saber cuándo estoy en peligro</t>
     </r>
   </si>
   <si>
-    <t>Eliminación de Tareas.</t>
+    <t>Barra de vida en el HUD</t>
   </si>
   <si>
-    <t>El sistema debe pedir confirmación antes de eliminar una tarea.</t>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Diseño debe ser consistente con el estilo visual del juego</t>
   </si>
   <si>
     <r>
@@ -472,7 +389,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -489,7 +406,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>marcar tareas como completadas</t>
+      <t>un jefe final que represente un reto significativo</t>
     </r>
     <r>
       <rPr>
@@ -506,22 +423,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>realizar un seguimiento adecuado del progreso del proyecto</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>sentir un progreso al superar el nivel</t>
     </r>
   </si>
   <si>
-    <t>Completar Tareas.</t>
+    <t>Implementación del Boss</t>
   </si>
   <si>
-    <t>Las tareas completadas deben poder visualizarse de manera diferente a las normales.</t>
+    <t>Incluir patrones de ataque únicos</t>
   </si>
   <si>
     <r>
@@ -539,7 +448,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -556,7 +465,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>asignar etiquetas personalizadas a mis tareas</t>
+      <t>poder avanzar al siguiente piso de la mazmorra</t>
     </r>
     <r>
       <rPr>
@@ -573,22 +482,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>filtrar y organizar mejor las actividades</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>continuar explorando y progresando en el juego</t>
     </r>
   </si>
   <si>
-    <t>Etiquetas Personalizadas.</t>
+    <t>Cambio entre pisos</t>
   </si>
   <si>
-    <t>Las etiquetas deben poder editarse y eliminarse.</t>
+    <t>Debe sincronizarse con la generación procedimental</t>
   </si>
   <si>
     <r>
@@ -606,7 +507,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -623,7 +524,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>visualizar mis tareas y proyectos en un tablero Kanban</t>
+      <t>gestionar las armas recolectadas</t>
     </r>
     <r>
       <rPr>
@@ -640,22 +541,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>monitorear su estado en una vista simplificada</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>usarlas estratégicamente durante el juego</t>
     </r>
   </si>
   <si>
-    <t>Tablero Kanban.</t>
+    <t>Inventario del jugador</t>
   </si>
   <si>
-    <t>Las columnas deben ser personalizables (Por hacer, En progreso, Completado).</t>
+    <t>Considerar límite de capacidad para balancear la dificultad</t>
   </si>
   <si>
     <r>
@@ -673,7 +566,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -690,7 +583,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>recibir notificaciones cuando una tarea esté cerca de vencer</t>
+      <t>un menú de inicio y configuración</t>
     </r>
     <r>
       <rPr>
@@ -707,22 +600,17 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>no perder de vista mis plazos importantes</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>ajustar opciones y comenzar el juego</t>
     </r>
   </si>
   <si>
-    <t>Notificaciones de Vencimiento.</t>
+    <t>Implementación de menús principales</t>
   </si>
   <si>
-    <t>Configurable para alertar 1 día antes o 1 hora antes del vencimiento.</t>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Asegurar consistencia con el diseño visual del juego</t>
   </si>
   <si>
     <r>
@@ -740,7 +628,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -757,7 +645,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>filtrar tareas por fecha, prioridad o estado</t>
+      <t>que algunos enemigos puedan atacarme con proyectiles desde la distancia</t>
     </r>
     <r>
       <rPr>
@@ -774,25 +662,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>encontrar rápidamente las tareas relevantes</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>enfrentar diferentes tipos de retos</t>
     </r>
   </si>
   <si>
-    <t>Filtro de Tareas.</t>
+    <t>Ataques de enemigos a distancia</t>
   </si>
   <si>
-    <t>Baja.</t>
-  </si>
-  <si>
-    <t>El filtro debe ser combinable de forma simultáneamente.</t>
+    <t>Debe incluir animaciones de proyectiles y detección de colisión</t>
   </si>
   <si>
     <r>
@@ -810,7 +687,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -827,7 +704,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>poder duplicar tareas o proyectos existentes</t>
+      <t>que las mazmorras incluyan trampas activas que puedan dañarme</t>
     </r>
     <r>
       <rPr>
@@ -844,22 +721,17 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>reutilizar estructuras similares sin empezar desde cero</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>añadir más desafío y estrategia al juego</t>
     </r>
   </si>
   <si>
-    <t>Duplicar Tareas o Proyectos.</t>
+    <t>Implementación de trampas</t>
   </si>
   <si>
-    <t>Debe duplicar todas las propiedades, incluyendo subtareas y dependencias.</t>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sincronizar con la generación procedimental de mazmorras</t>
   </si>
   <si>
     <r>
@@ -877,7 +749,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -894,7 +766,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>establecer dependencias entre tareas</t>
+      <t>ver efectos visuales al recibir daño o curarme</t>
     </r>
     <r>
       <rPr>
@@ -911,22 +783,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>asegurar que algunas tareas no inicien hasta que otras sean completadas</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>entender el impacto de mis acciones en el juego</t>
     </r>
   </si>
   <si>
-    <t>Dependencias de Tareas.</t>
+    <t>Efectos visuales de daño y curación</t>
   </si>
   <si>
-    <t>Visualizar las dependencias en una vista tipo gráfico de Gantt.</t>
+    <t>Diseñar efectos consistentes con la temática visual del juego</t>
   </si>
   <si>
     <r>
@@ -944,7 +808,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -961,7 +825,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>sincronizar mis tareas con Google Calendar</t>
+      <t>un tutorial que me enseñe los controles básicos del juego</t>
     </r>
     <r>
       <rPr>
@@ -978,22 +842,17 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>visualizar mis actividades en todas las plataformas que uso</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>entender cómo jugar desde el inicio</t>
     </r>
   </si>
   <si>
-    <t>Sincronización con Google Calendar.</t>
+    <t>Implementación del tutorial</t>
   </si>
   <si>
-    <t>La sincronización debe ser bidireccional.</t>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Debe ser opcional, en este caso se puede incluir a modo de manual de usuario que explique el videojuego</t>
   </si>
   <si>
     <r>
@@ -1011,7 +870,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -1028,7 +887,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>visualizar el porcentaje de avance de un proyecto basado en las tareas completadas</t>
+      <t>seleccionar entre diferentes tipos de armas</t>
     </r>
     <r>
       <rPr>
@@ -1045,22 +904,14 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>tener una idea clara de cuánto falta para finalizar</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>variar mis estrategias de combate</t>
     </r>
   </si>
   <si>
-    <t>Indicador de Progreso.</t>
+    <t>Sistema de selección de armas</t>
   </si>
   <si>
-    <t>El indicador debe ser dinámico y actualizado en tiempo real.</t>
+    <t>Cada arma debe tener atributos y habilidades únicas</t>
   </si>
   <si>
     <r>
@@ -1078,7 +929,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Administrador</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -1095,7 +946,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>gestionar y asignar proyectos a diferentes equipos o usuarios</t>
+      <t>música que se escuche de fondo</t>
     </r>
     <r>
       <rPr>
@@ -1112,22 +963,17 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>optimizar la carga de trabajo y la colaboración</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>.</t>
+      <t>mejorar la inmersión</t>
     </r>
   </si>
   <si>
-    <t>Asignación de Proyectos.</t>
+    <t>Música dinámica</t>
   </si>
   <si>
-    <t>Debe incluir la posibilidad de asignar múltiples usuarios a un proyecto.</t>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Implementar un track que haga loop de forma suave</t>
   </si>
   <si>
     <r>
@@ -1145,7 +991,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Usuario</t>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -1162,7 +1008,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>visualizar un gráfico de Gantt con mis proyectos y sus tareas</t>
+      <t>poder pausar el juego en cualquier momento</t>
     </r>
     <r>
       <rPr>
@@ -1179,7 +1025,35 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>monitorear el progreso y las fechas clave en una línea de tiempo</t>
+      <t>gestionar el tiempo y realizar ajustes</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementación del sistema de pausa</t>
+  </si>
+  <si>
+    <t>3 puntos</t>
+  </si>
+  <si>
+    <t>Asegurar que se congelen todos los estados del juego durante la pausa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Como un </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>jugador</t>
     </r>
     <r>
       <rPr>
@@ -1187,14 +1061,164 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">, necesito </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>que el sistema de combate me permita enfrentar a varios enemigos al mismo tiempo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, con la finalidad de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>aumentar la dificultad</t>
     </r>
   </si>
   <si>
-    <t>Gráfico de Gantt.</t>
+    <t>Combate grupal</t>
   </si>
   <si>
-    <t>El gráfico debe mostrar dependencias y fechas estimadas.</t>
+    <t>Evaluar rendimiento en escenas con múltiples entidades activas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Como un </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>jugador</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, necesito </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>poder guardar mi partida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, con la finalidad de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>poder seguir mas adelante desde donde estaba</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementar sistema de guardado</t>
+  </si>
+  <si>
+    <t>9 puntos</t>
+  </si>
+  <si>
+    <t>Implementar guardado mediante base de datos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Como un </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">jugador </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">necesito </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>distintas habilidades de ataque para mis armas</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, con la finalidad de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>añadir variedad al combate del juego</t>
+    </r>
+  </si>
+  <si>
+    <t>Habilidades de ataque</t>
+  </si>
+  <si>
+    <t>10 puntos</t>
+  </si>
+  <si>
+    <t>Debe haber una habilidad por arma</t>
   </si>
   <si>
     <t>Pila de Producto (Product Backlog): Instructivo</t>
@@ -1204,9 +1228,6 @@
   </si>
   <si>
     <t>Instrucciones</t>
-  </si>
-  <si>
-    <t>Identificador (ID) de la Historia</t>
   </si>
   <si>
     <t>Código que identifica a la historia de forma unívoca, una vez asignado, no debe ser re-usado en otra historia, ni siquiera si la historia es descartada. El código identifica la historia en otros documentos, como por ejemplo la plantilla de historias de usuario.</t>
@@ -1245,7 +1266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1271,16 +1292,11 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,18 +1315,22 @@
         <bgColor rgb="FF1F497D"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left/>
       <top/>
       <bottom/>
     </border>
@@ -1329,6 +1349,11 @@
       </bottom>
     </border>
     <border>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left/>
       <right/>
       <bottom/>
@@ -1337,55 +1362,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1609,14 +1610,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.43"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="116.86"/>
-    <col customWidth="1" min="4" max="4" width="18.57"/>
-    <col customWidth="1" min="5" max="5" width="11.43"/>
+    <col customWidth="1" min="2" max="2" width="16.43"/>
+    <col customWidth="1" min="3" max="3" width="88.71"/>
+    <col customWidth="1" min="4" max="4" width="27.57"/>
+    <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="12.43"/>
-    <col customWidth="1" min="8" max="8" width="13.29"/>
-    <col customWidth="1" min="9" max="9" width="28.57"/>
+    <col customWidth="1" min="7" max="7" width="16.14"/>
+    <col customWidth="1" min="8" max="8" width="17.86"/>
+    <col customWidth="1" min="9" max="9" width="34.29"/>
     <col customWidth="1" min="10" max="26" width="10.71"/>
   </cols>
   <sheetData>
@@ -1680,14 +1681,14 @@
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1707,32 +1708,32 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1751,28 +1752,32 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1791,28 +1796,32 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6">
-        <v>2.0</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
+      <c r="I6" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1831,28 +1840,32 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6">
-        <v>3.0</v>
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="H7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1871,28 +1884,32 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6">
-        <v>4.0</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>23</v>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1911,28 +1928,32 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6">
-        <v>5.0</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>26</v>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1951,28 +1972,32 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6">
-        <v>6.0</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>28</v>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
+      <c r="H10" s="10" t="s">
+        <v>15</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11" t="s">
-        <v>12</v>
+      <c r="I10" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1991,28 +2016,32 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6">
-        <v>7.0</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>32</v>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2031,28 +2060,32 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6">
-        <v>8.0</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>34</v>
+      <c r="I12" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2071,28 +2104,32 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6">
-        <v>9.0</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>38</v>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="G13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="7"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2111,28 +2148,32 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6">
-        <v>10.0</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>40</v>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>41</v>
+      <c r="G14" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="H14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2151,28 +2192,32 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6">
-        <v>11.0</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>42</v>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>43</v>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>11</v>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="11" t="s">
-        <v>44</v>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>45</v>
+      <c r="G15" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="H15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2191,28 +2236,32 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6">
-        <v>12.0</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
+      <c r="C16" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
+      <c r="D16" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>44</v>
+      <c r="F16" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>48</v>
+      <c r="G16" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="H16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2231,28 +2280,32 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6">
-        <v>13.0</v>
+      <c r="A17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>49</v>
+      <c r="C17" s="9" t="s">
+        <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>50</v>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>19</v>
+      <c r="F17" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>51</v>
+      <c r="G17" s="10" t="s">
+        <v>60</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="H17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2271,28 +2324,32 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6">
-        <v>14.0</v>
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>52</v>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>53</v>
+      <c r="D18" s="9" t="s">
+        <v>63</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>11</v>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>54</v>
+      <c r="G18" s="10" t="s">
+        <v>32</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="H18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2311,28 +2368,32 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6">
-        <v>15.0</v>
+      <c r="A19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>55</v>
+      <c r="C19" s="9" t="s">
+        <v>65</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>56</v>
+      <c r="D19" s="9" t="s">
+        <v>66</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>11</v>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
-        <v>19</v>
+      <c r="F19" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>57</v>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="H19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2351,28 +2412,32 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6">
-        <v>16.0</v>
+      <c r="A20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>58</v>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>59</v>
+      <c r="D20" s="9" t="s">
+        <v>70</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="E20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>60</v>
+      <c r="F20" s="10" t="s">
+        <v>71</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2391,28 +2456,32 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6">
-        <v>17.0</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>61</v>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
+      <c r="D21" s="9" t="s">
+        <v>74</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>11</v>
+      <c r="E21" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>63</v>
+      <c r="G21" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="H21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2430,17 +2499,33 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="1"/>
+    <row r="22">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2458,17 +2543,33 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+    <row r="23">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2488,14 +2589,14 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -29757,6 +29858,90 @@
       <c r="X997" s="1"/>
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="1"/>
+      <c r="F998" s="1"/>
+      <c r="G998" s="1"/>
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="P998" s="1"/>
+      <c r="Q998" s="1"/>
+      <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
+      <c r="T998" s="1"/>
+      <c r="U998" s="1"/>
+      <c r="V998" s="1"/>
+      <c r="W998" s="1"/>
+      <c r="X998" s="1"/>
+      <c r="Y998" s="1"/>
+      <c r="Z998" s="1"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
+      <c r="E999" s="1"/>
+      <c r="F999" s="1"/>
+      <c r="G999" s="1"/>
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+      <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
+      <c r="O999" s="1"/>
+      <c r="P999" s="1"/>
+      <c r="Q999" s="1"/>
+      <c r="R999" s="1"/>
+      <c r="S999" s="1"/>
+      <c r="T999" s="1"/>
+      <c r="U999" s="1"/>
+      <c r="V999" s="1"/>
+      <c r="W999" s="1"/>
+      <c r="X999" s="1"/>
+      <c r="Y999" s="1"/>
+      <c r="Z999" s="1"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -29787,7 +29972,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -29872,11 +30057,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
-        <v>65</v>
+      <c r="B4" s="12" t="s">
+        <v>85</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>66</v>
+      <c r="C4" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29904,11 +30089,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
-        <v>67</v>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>68</v>
+      <c r="C5" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29936,11 +30121,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>69</v>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29968,11 +30153,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>70</v>
+      <c r="C7" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30000,11 +30185,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>71</v>
+      <c r="C8" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -30032,11 +30217,11 @@
     </row>
     <row r="9" ht="50.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>72</v>
+      <c r="C9" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -30064,11 +30249,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>73</v>
+      <c r="C10" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -30096,11 +30281,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>74</v>
+      <c r="C11" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -30128,11 +30313,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>75</v>
+      <c r="C12" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>

--- a/Fase 2/Evidencias del proyecto/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/Fase 2/Evidencias del proyecto/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>XX-XXXX-XXXX</t>
+    <t>HU-1</t>
   </si>
   <si>
     <r>
@@ -120,6 +120,9 @@
     <t>Fundamental para la jugabilidad inicial. Debe incluir animaciones de movimiento</t>
   </si>
   <si>
+    <t>HU-2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -185,6 +188,9 @@
     <t>Considerar animaciones y sincronización con controles</t>
   </si>
   <si>
+    <t>HU-3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -242,6 +248,9 @@
   </si>
   <si>
     <t>Incluir detección de rango y comportamiento de seguimiento</t>
+  </si>
+  <si>
+    <t>HU-4</t>
   </si>
   <si>
     <r>
@@ -309,6 +318,9 @@
     <t>Evaluar algoritmos eficientes para garantizar conectividad de las salas</t>
   </si>
   <si>
+    <t>HU-5</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -374,6 +386,9 @@
     <t>Diseño debe ser consistente con el estilo visual del juego</t>
   </si>
   <si>
+    <t>HU-6</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -431,6 +446,9 @@
   </si>
   <si>
     <t>Incluir patrones de ataque únicos</t>
+  </si>
+  <si>
+    <t>HU-7</t>
   </si>
   <si>
     <r>
@@ -492,6 +510,9 @@
     <t>Debe sincronizarse con la generación procedimental</t>
   </si>
   <si>
+    <t>HU-8</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -549,6 +570,9 @@
   </si>
   <si>
     <t>Considerar límite de capacidad para balancear la dificultad</t>
+  </si>
+  <si>
+    <t>HU-9</t>
   </si>
   <si>
     <r>
@@ -613,6 +637,9 @@
     <t>Asegurar consistencia con el diseño visual del juego</t>
   </si>
   <si>
+    <t>HU-10</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -670,6 +697,9 @@
   </si>
   <si>
     <t>Debe incluir animaciones de proyectiles y detección de colisión</t>
+  </si>
+  <si>
+    <t>HU-11</t>
   </si>
   <si>
     <r>
@@ -734,6 +764,9 @@
     <t>Sincronizar con la generación procedimental de mazmorras</t>
   </si>
   <si>
+    <t>HU-12</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -791,6 +824,9 @@
   </si>
   <si>
     <t>Diseñar efectos consistentes con la temática visual del juego</t>
+  </si>
+  <si>
+    <t>HU-13</t>
   </si>
   <si>
     <r>
@@ -855,6 +891,9 @@
     <t>Debe ser opcional, en este caso se puede incluir a modo de manual de usuario que explique el videojuego</t>
   </si>
   <si>
+    <t>HU-14</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -912,6 +951,9 @@
   </si>
   <si>
     <t>Cada arma debe tener atributos y habilidades únicas</t>
+  </si>
+  <si>
+    <t>HU-15</t>
   </si>
   <si>
     <r>
@@ -976,6 +1018,9 @@
     <t>Implementar un track que haga loop de forma suave</t>
   </si>
   <si>
+    <t>HU-16</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -1038,6 +1083,9 @@
     <t>Asegurar que se congelen todos los estados del juego durante la pausa</t>
   </si>
   <si>
+    <t>HU-17</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -1095,6 +1143,9 @@
   </si>
   <si>
     <t>Evaluar rendimiento en escenas con múltiples entidades activas</t>
+  </si>
+  <si>
+    <t>HU-18</t>
   </si>
   <si>
     <r>
@@ -1157,6 +1208,9 @@
   </si>
   <si>
     <t>Implementar guardado mediante base de datos</t>
+  </si>
+  <si>
+    <t>HU-19</t>
   </si>
   <si>
     <r>
@@ -1362,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1375,9 +1429,6 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1756,25 +1807,25 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="7"/>
@@ -1798,28 +1849,28 @@
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="1"/>
@@ -1842,28 +1893,28 @@
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
+      <c r="I7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="1"/>
@@ -1886,28 +1937,28 @@
     <row r="8">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>25</v>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>28</v>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>29</v>
+      <c r="I8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="1"/>
@@ -1930,28 +1981,28 @@
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>30</v>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
+      <c r="D9" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
+      <c r="G9" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
+      <c r="H9" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>34</v>
+      <c r="I9" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="1"/>
@@ -1974,28 +2025,28 @@
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>27</v>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>37</v>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="1"/>
@@ -2018,28 +2069,28 @@
     <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>28</v>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>33</v>
+      <c r="H11" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>40</v>
+      <c r="I11" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="1"/>
@@ -2062,28 +2113,28 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>41</v>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>19</v>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>33</v>
+      <c r="H12" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>43</v>
+      <c r="I12" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="1"/>
@@ -2106,28 +2157,28 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>44</v>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>45</v>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>46</v>
+      <c r="G13" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>33</v>
+      <c r="H13" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>47</v>
+      <c r="I13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="1"/>
@@ -2150,28 +2201,28 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>49</v>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>50</v>
+      <c r="I14" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="1"/>
@@ -2194,28 +2245,28 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>51</v>
+      <c r="C15" s="8" t="s">
+        <v>61</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>53</v>
+      <c r="G15" s="9" t="s">
+        <v>63</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>33</v>
+      <c r="H15" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>54</v>
+      <c r="I15" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="1"/>
@@ -2238,28 +2289,28 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>55</v>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>56</v>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>20</v>
+      <c r="G16" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>33</v>
+      <c r="H16" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>57</v>
+      <c r="I16" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="1"/>
@@ -2282,28 +2333,28 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>58</v>
+      <c r="C17" s="8" t="s">
+        <v>70</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>59</v>
+      <c r="D17" s="8" t="s">
+        <v>71</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>60</v>
+      <c r="G17" s="9" t="s">
+        <v>72</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>61</v>
+      <c r="I17" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="1"/>
@@ -2326,28 +2377,28 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>62</v>
+      <c r="C18" s="8" t="s">
+        <v>75</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>63</v>
+      <c r="D18" s="8" t="s">
+        <v>76</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>19</v>
+      <c r="F18" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>32</v>
+      <c r="G18" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>64</v>
+      <c r="I18" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="1"/>
@@ -2370,28 +2421,28 @@
     <row r="19">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
+      <c r="C19" s="8" t="s">
+        <v>79</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>66</v>
+      <c r="D19" s="8" t="s">
+        <v>80</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>46</v>
+      <c r="G19" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>67</v>
+      <c r="H19" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>68</v>
+      <c r="I19" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="1"/>
@@ -2414,28 +2465,28 @@
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>69</v>
+      <c r="C20" s="8" t="s">
+        <v>84</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>70</v>
+      <c r="D20" s="8" t="s">
+        <v>85</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>71</v>
+      <c r="F20" s="9" t="s">
+        <v>86</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>46</v>
+      <c r="G20" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>72</v>
+      <c r="I20" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="1"/>
@@ -2458,28 +2509,28 @@
     <row r="21">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>73</v>
+      <c r="C21" s="8" t="s">
+        <v>89</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>74</v>
+      <c r="D21" s="8" t="s">
+        <v>90</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>75</v>
+      <c r="I21" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="1"/>
@@ -2502,28 +2553,28 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>76</v>
+      <c r="C22" s="8" t="s">
+        <v>93</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>77</v>
+      <c r="D22" s="8" t="s">
+        <v>94</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>78</v>
+      <c r="F22" s="9" t="s">
+        <v>95</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>46</v>
+      <c r="G22" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>79</v>
+      <c r="I22" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -2546,28 +2597,28 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>80</v>
+      <c r="C23" s="8" t="s">
+        <v>98</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>81</v>
+      <c r="D23" s="8" t="s">
+        <v>99</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>82</v>
+      <c r="F23" s="9" t="s">
+        <v>100</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>20</v>
+      <c r="G23" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>33</v>
+      <c r="H23" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>83</v>
+      <c r="I23" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="1"/>
@@ -2589,14 +2640,14 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -29972,7 +30023,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -30057,11 +30108,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
-        <v>85</v>
+      <c r="B4" s="11" t="s">
+        <v>103</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
+      <c r="C4" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -30089,11 +30140,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>87</v>
+      <c r="C5" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -30121,11 +30172,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>88</v>
+      <c r="C6" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -30153,11 +30204,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>89</v>
+      <c r="C7" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30185,11 +30236,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>90</v>
+      <c r="C8" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -30217,11 +30268,11 @@
     </row>
     <row r="9" ht="50.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>91</v>
+      <c r="C9" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -30249,11 +30300,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>92</v>
+      <c r="C10" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -30281,11 +30332,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>93</v>
+      <c r="C11" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -30313,11 +30364,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>94</v>
+      <c r="C12" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
